--- a/tools/table to json schema.xlsx
+++ b/tools/table to json schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mijn Projecten\Blockception\VSCode-Bedrock-Development-Extension\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502BCA5D-A6CE-4D54-AFF1-D0425A270412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4104CF14-FBA2-418B-9527-CF30B93FCAE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03531832-3421-4F1A-B28C-9978E920E8BE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Boolean</t>
   </si>
@@ -64,56 +64,78 @@
   </si>
   <si>
     <t>Cdescription</t>
+  </si>
+  <si>
+    <t>Cdefault</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
   <si>
     <t xml:space="preserve">    "$NAME$": {
       "type": "$TYPE$",
       "default": $VALUE$,
       "description": "$DESCRIPTION$"
-    },</t>
-  </si>
-  <si>
-    <t>Cdefault</t>
-  </si>
-  <si>
-    <t>speed_multiplier</t>
-  </si>
-  <si>
-    <t>Decimal</t>
-  </si>
-  <si>
-    <t>Movement speed multiplier of the mob when using this AI Goal</t>
-  </si>
-  <si>
-    <t>ignore_mob_damage</t>
-  </si>
-  <si>
-    <t>If true, the mob will not panic in response to damage from other mobs (only fire/lava etc)</t>
-  </si>
-  <si>
-    <t>prefer_water</t>
-  </si>
-  <si>
-    <t>If true, the mob will prefer water over land</t>
-  </si>
-  <si>
-    <t>force</t>
-  </si>
-  <si>
-    <t>If true, this mob will not stop panicking until it can't move anymore or the goal is removed from it</t>
+    },
+</t>
+  </si>
+  <si>
+    <t>convert_trades_economy</t>
+  </si>
+  <si>
+    <t>Determines when the mob transforms, if the trades should be converted when the new mob has a economy_trade_table. When the trades are converted, the mob will generate a new trade list with their new trade table, but then it will try to convert any of the same trades over to have the same enchantments and user data. For example, if the original has a Emerald to Enchanted Iron Sword (Sharpness 1), and the new trade also has an Emerald for Enchanted Iron Sword, then the enchantment will be Sharpness 1.</t>
+  </si>
+  <si>
+    <t>display_name</t>
+  </si>
+  <si>
+    <t>Name to be displayed while trading with this entity</t>
+  </si>
+  <si>
+    <t>hero_demand_discount</t>
+  </si>
+  <si>
+    <t>How much should Demand be modified by when the player has the Hero of the Village mob effect</t>
+  </si>
+  <si>
+    <t>new_screen</t>
+  </si>
+  <si>
+    <t>Used to determine if trading with entity opens the new trade screen</t>
+  </si>
+  <si>
+    <t>persist_trades</t>
+  </si>
+  <si>
+    <t>Determines if the trades should persist when the mob transforms. This makes it so that the next time the mob is transformed to something with a trade_table or economy_trade_table, then it keeps their trades.</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>File path relative to the resource pack root for this entity's trades</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -132,15 +154,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,8 +223,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F4116B3-0007-4D20-9286-68F7BD230BDB}" name="Table1" displayName="Table1" ref="A1:I5" totalsRowShown="0">
-  <autoFilter ref="A1:I5" xr:uid="{439841C6-9CB3-4077-BD6A-80332BFA4FFA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F4116B3-0007-4D20-9286-68F7BD230BDB}" name="Table1" displayName="Table1" ref="A1:I7" totalsRowShown="0">
+  <autoFilter ref="A1:I7" xr:uid="{439841C6-9CB3-4077-BD6A-80332BFA4FFA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{69009C7E-E532-4DCD-BC85-F6C8A2BF783F}" name="Name"/>
     <tableColumn id="2" xr3:uid="{51C9B8E8-45FE-4EED-BB0F-05ACF960DCA5}" name="Type"/>
@@ -176,10 +233,10 @@
     <tableColumn id="8" xr3:uid="{F7F4D22B-89FA-4BF7-9CD7-3493546FB499}" name="Cname">
       <calculatedColumnFormula>Table1[[#This Row],[Name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5BCDDD8B-3993-4CA1-9029-A7034EC6459C}" name="Ctype" dataDxfId="1">
-      <calculatedColumnFormula>SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number")</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{5BCDDD8B-3993-4CA1-9029-A7034EC6459C}" name="Ctype" dataDxfId="0">
+      <calculatedColumnFormula>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{33B88AA2-B199-459B-811C-ED986D928870}" name="Cdefault" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{33B88AA2-B199-459B-811C-ED986D928870}" name="Cdefault" dataDxfId="1">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{367BB0CD-8D97-419C-A3FC-663E45A6296E}" name="Cdescription">
@@ -490,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BED6657-4584-43E8-87D9-83BF6B68546D}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +566,7 @@
     <col min="9" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -529,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -538,156 +595,266 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:11" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E2" t="str">
         <f>Table1[[#This Row],[Name]]</f>
-        <v>speed_multiplier</v>
+        <v>convert_trades_economy</v>
       </c>
       <c r="F2" t="str">
-        <f>SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number")</f>
-        <v>number</v>
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
+        <v>boolean</v>
       </c>
       <c r="G2" t="str">
         <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
-        <v>1</v>
+        <v>false</v>
       </c>
       <c r="H2" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>Movement speed multiplier of the mob when using this AI Goal</v>
+        <v>Determines when the mob transforms, if the trades should be converted when the new mob has a economy_trade_table. When the trades are converted, the mob will generate a new trade list with their new trade table, but then it will try to convert any of the same trades over to have the same enchantments and user data. For example, if the original has a Emerald to Enchanted Iron Sword (Sharpness 1), and the new trade also has an Emerald for Enchanted Iron Sword, then the enchantment will be Sharpness 1.</v>
       </c>
       <c r="I2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "speed_multiplier": {
-      "type": "number",
-      "default": 1,
-      "description": "Movement speed multiplier of the mob when using this AI Goal"
-    },</v>
+        <v xml:space="preserve">    "convert_trades_economy": {
+      "type": "boolean",
+      "default": false,
+      "description": "Determines when the mob transforms, if the trades should be converted when the new mob has a economy_trade_table. When the trades are converted, the mob will generate a new trade list with their new trade table, but then it will try to convert any of the same trades over to have the same enchantments and user data. For example, if the original has a Emerald to Enchanted Iron Sword (Sharpness 1), and the new trade also has an Emerald for Enchanted Iron Sword, then the enchantment will be Sharpness 1."
+    },
+</v>
+      </c>
+      <c r="K2" s="4" t="str">
+        <f>_xlfn.CONCAT(Table1[Json Schema])</f>
+        <v xml:space="preserve">    "convert_trades_economy": {
+      "type": "boolean",
+      "default": false,
+      "description": "Determines when the mob transforms, if the trades should be converted when the new mob has a economy_trade_table. When the trades are converted, the mob will generate a new trade list with their new trade table, but then it will try to convert any of the same trades over to have the same enchantments and user data. For example, if the original has a Emerald to Enchanted Iron Sword (Sharpness 1), and the new trade also has an Emerald for Enchanted Iron Sword, then the enchantment will be Sharpness 1."
+    },
+    "display_name": {
+      "type": "string",
+      "default": 0,
+      "description": "Name to be displayed while trading with this entity"
+    },
+    "hero_demand_discount": {
+      "type": "integer",
+      "default": -4,
+      "description": "How much should Demand be modified by when the player has the Hero of the Village mob effect"
+    },
+    "new_screen": {
+      "type": "boolean",
+      "default": false,
+      "description": "Used to determine if trading with entity opens the new trade screen"
+    },
+    "persist_trades": {
+      "type": "boolean",
+      "default": false,
+      "description": "Determines if the trades should persist when the mob transforms. This makes it so that the next time the mob is transformed to something with a trade_table or economy_trade_table, then it keeps their trades."
+    },
+    "table": {
+      "type": "string",
+      "default": 0,
+      "description": "File path relative to the resource pack root for this entity's trades"
+    },
+</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="str">
         <f>Table1[[#This Row],[Name]]</f>
-        <v>ignore_mob_damage</v>
-      </c>
-      <c r="F3" t="str">
-        <f>SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number")</f>
+        <v>display_name</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
+        <v>string</v>
+      </c>
+      <c r="G3" s="2">
+        <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="str">
+        <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
+        <v>Name to be displayed while trading with this entity</v>
+      </c>
+      <c r="I3" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
+        <v xml:space="preserve">    "display_name": {
+      "type": "string",
+      "default": 0,
+      "description": "Name to be displayed while trading with this entity"
+    },
+</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>-4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="str">
+        <f>Table1[[#This Row],[Name]]</f>
+        <v>hero_demand_discount</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
+        <v>integer</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
+        <v>-4</v>
+      </c>
+      <c r="H4" t="str">
+        <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
+        <v>How much should Demand be modified by when the player has the Hero of the Village mob effect</v>
+      </c>
+      <c r="I4" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
+        <v xml:space="preserve">    "hero_demand_discount": {
+      "type": "integer",
+      "default": -4,
+      "description": "How much should Demand be modified by when the player has the Hero of the Village mob effect"
+    },
+</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="str">
+        <f>Table1[[#This Row],[Name]]</f>
+        <v>new_screen</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
         <v>boolean</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G5" s="2" t="str">
         <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
         <v>false</v>
       </c>
-      <c r="H3" t="str">
+      <c r="H5" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>If true, the mob will not panic in response to damage from other mobs (only fire/lava etc)</v>
-      </c>
-      <c r="I3" t="str">
+        <v>Used to determine if trading with entity opens the new trade screen</v>
+      </c>
+      <c r="I5" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "ignore_mob_damage": {
+        <v xml:space="preserve">    "new_screen": {
       "type": "boolean",
       "default": false,
-      "description": "If true, the mob will not panic in response to damage from other mobs (only fire/lava etc)"
-    },</v>
+      "description": "Used to determine if trading with entity opens the new trade screen"
+    },
+</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="b">
+      <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="str">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="str">
         <f>Table1[[#This Row],[Name]]</f>
-        <v>prefer_water</v>
-      </c>
-      <c r="F4" t="str">
-        <f>SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number")</f>
+        <v>persist_trades</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
         <v>boolean</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G6" s="2" t="str">
         <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
         <v>false</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H6" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>If true, the mob will prefer water over land</v>
-      </c>
-      <c r="I4" t="str">
+        <v>Determines if the trades should persist when the mob transforms. This makes it so that the next time the mob is transformed to something with a trade_table or economy_trade_table, then it keeps their trades.</v>
+      </c>
+      <c r="I6" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "prefer_water": {
+        <v xml:space="preserve">    "persist_trades": {
       "type": "boolean",
       "default": false,
-      "description": "If true, the mob will prefer water over land"
-    },</v>
+      "description": "Determines if the trades should persist when the mob transforms. This makes it so that the next time the mob is transformed to something with a trade_table or economy_trade_table, then it keeps their trades."
+    },
+</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="str">
+        <f>Table1[[#This Row],[Name]]</f>
+        <v>table</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
+        <v>string</v>
+      </c>
+      <c r="G7" s="2">
+        <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
         <v>0</v>
       </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="str">
-        <f>Table1[[#This Row],[Name]]</f>
-        <v>force</v>
-      </c>
-      <c r="F5" t="str">
-        <f>SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number")</f>
-        <v>boolean</v>
-      </c>
-      <c r="G5" t="str">
-        <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
-        <v>false</v>
-      </c>
-      <c r="H5" t="str">
+      <c r="H7" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>If true, this mob will not stop panicking until it can't move anymore or the goal is removed from it</v>
-      </c>
-      <c r="I5" t="str">
+        <v>File path relative to the resource pack root for this entity's trades</v>
+      </c>
+      <c r="I7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "force": {
-      "type": "boolean",
-      "default": false,
-      "description": "If true, this mob will not stop panicking until it can't move anymore or the goal is removed from it"
-    },</v>
+        <v xml:space="preserve">    "table": {
+      "type": "string",
+      "default": 0,
+      "description": "File path relative to the resource pack root for this entity's trades"
+    },
+</v>
       </c>
     </row>
   </sheetData>
@@ -703,16 +870,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7EC5E5-17BC-4A3C-B91C-5C00D91EAD6F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F7:F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/tools/table to json schema.xlsx
+++ b/tools/table to json schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mijn Projecten\Blockception\VSCode-Bedrock-Development-Extension\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4104CF14-FBA2-418B-9527-CF30B93FCAE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A1F6A7-DF3C-4035-89B5-745340BDD6C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03531832-3421-4F1A-B28C-9978E920E8BE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Boolean</t>
   </si>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>Cdefault</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>String</t>
   </si>
   <si>
     <t xml:space="preserve">    "$NAME$": {
@@ -83,40 +77,64 @@
 </t>
   </si>
   <si>
-    <t>convert_trades_economy</t>
-  </si>
-  <si>
-    <t>Determines when the mob transforms, if the trades should be converted when the new mob has a economy_trade_table. When the trades are converted, the mob will generate a new trade list with their new trade table, but then it will try to convert any of the same trades over to have the same enchantments and user data. For example, if the original has a Emerald to Enchanted Iron Sword (Sharpness 1), and the new trade also has an Emerald for Enchanted Iron Sword, then the enchantment will be Sharpness 1.</t>
-  </si>
-  <si>
-    <t>display_name</t>
-  </si>
-  <si>
-    <t>Name to be displayed while trading with this entity</t>
-  </si>
-  <si>
-    <t>hero_demand_discount</t>
-  </si>
-  <si>
-    <t>How much should Demand be modified by when the player has the Hero of the Village mob effect</t>
-  </si>
-  <si>
-    <t>new_screen</t>
-  </si>
-  <si>
-    <t>Used to determine if trading with entity opens the new trade screen</t>
-  </si>
-  <si>
-    <t>persist_trades</t>
-  </si>
-  <si>
-    <t>Determines if the trades should persist when the mob transforms. This makes it so that the next time the mob is transformed to something with a trade_table or economy_trade_table, then it keeps their trades.</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>File path relative to the resource pack root for this entity's trades</t>
+    <t>fuseLength</t>
+  </si>
+  <si>
+    <t>Range [a, b]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>The range for the random amount of time the fuse will be lit before exploding, a negative value means the explosion will be immediate</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>The radius of the explosion in blocks and the amount of damage the explosion deals</t>
+  </si>
+  <si>
+    <t>maxResistance</t>
+  </si>
+  <si>
+    <t>Infinite</t>
+  </si>
+  <si>
+    <t>A blocks explosion resistance will be capped at this value when an explosion occurs</t>
+  </si>
+  <si>
+    <t>fuseLit</t>
+  </si>
+  <si>
+    <t>If true, the fuse is already lit when this component is added to the entity</t>
+  </si>
+  <si>
+    <t>causesFire</t>
+  </si>
+  <si>
+    <t>If true, blocks in the explosion radius will be set on fire</t>
+  </si>
+  <si>
+    <t>breaks_blocks</t>
+  </si>
+  <si>
+    <t>If true, the explosion will destroy blocks in the explosion radius</t>
+  </si>
+  <si>
+    <t>fireAffectedByGriefing</t>
+  </si>
+  <si>
+    <t>If true, whether the explosion causes fire is affected by the mob griefing game rule</t>
+  </si>
+  <si>
+    <t>destroyAffectedByGriefing</t>
+  </si>
+  <si>
+    <t>If true, whether the explosion breaks blocks is affected by the mob griefing game rule</t>
   </si>
 </sst>
 </file>
@@ -223,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F4116B3-0007-4D20-9286-68F7BD230BDB}" name="Table1" displayName="Table1" ref="A1:I7" totalsRowShown="0">
-  <autoFilter ref="A1:I7" xr:uid="{439841C6-9CB3-4077-BD6A-80332BFA4FFA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F4116B3-0007-4D20-9286-68F7BD230BDB}" name="Table1" displayName="Table1" ref="A1:I9" totalsRowShown="0">
+  <autoFilter ref="A1:I9" xr:uid="{439841C6-9CB3-4077-BD6A-80332BFA4FFA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{69009C7E-E532-4DCD-BC85-F6C8A2BF783F}" name="Name"/>
     <tableColumn id="2" xr3:uid="{51C9B8E8-45FE-4EED-BB0F-05ACF960DCA5}" name="Type"/>
@@ -233,10 +251,10 @@
     <tableColumn id="8" xr3:uid="{F7F4D22B-89FA-4BF7-9CD7-3493546FB499}" name="Cname">
       <calculatedColumnFormula>Table1[[#This Row],[Name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5BCDDD8B-3993-4CA1-9029-A7034EC6459C}" name="Ctype" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{5BCDDD8B-3993-4CA1-9029-A7034EC6459C}" name="Ctype" dataDxfId="1">
       <calculatedColumnFormula>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{33B88AA2-B199-459B-811C-ED986D928870}" name="Cdefault" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{33B88AA2-B199-459B-811C-ED986D928870}" name="Cdefault" dataDxfId="0">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{367BB0CD-8D97-419C-A3FC-663E45A6296E}" name="Cdescription">
@@ -547,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BED6657-4584-43E8-87D9-83BF6B68546D}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,75 +613,85 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="b">
-        <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="str">
         <f>Table1[[#This Row],[Name]]</f>
-        <v>convert_trades_economy</v>
+        <v>fuseLength</v>
       </c>
       <c r="F2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
-        <v>boolean</v>
+        <v>range [a, b]</v>
       </c>
       <c r="G2" t="str">
         <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
-        <v>false</v>
+        <v>[0.0, 0.0]</v>
       </c>
       <c r="H2" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>Determines when the mob transforms, if the trades should be converted when the new mob has a economy_trade_table. When the trades are converted, the mob will generate a new trade list with their new trade table, but then it will try to convert any of the same trades over to have the same enchantments and user data. For example, if the original has a Emerald to Enchanted Iron Sword (Sharpness 1), and the new trade also has an Emerald for Enchanted Iron Sword, then the enchantment will be Sharpness 1.</v>
+        <v>The range for the random amount of time the fuse will be lit before exploding, a negative value means the explosion will be immediate</v>
       </c>
       <c r="I2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "convert_trades_economy": {
+        <v xml:space="preserve">    "fuseLength": {
+      "type": "range [a, b]",
+      "default": [0.0, 0.0],
+      "description": "The range for the random amount of time the fuse will be lit before exploding, a negative value means the explosion will be immediate"
+    },
+</v>
+      </c>
+      <c r="K2" s="4" t="str">
+        <f>_xlfn.CONCAT(Table1[Json Schema])</f>
+        <v xml:space="preserve">    "fuseLength": {
+      "type": "range [a, b]",
+      "default": [0.0, 0.0],
+      "description": "The range for the random amount of time the fuse will be lit before exploding, a negative value means the explosion will be immediate"
+    },
+    "power": {
+      "type": "number",
+      "default": 3,
+      "description": "The radius of the explosion in blocks and the amount of damage the explosion deals"
+    },
+    "maxResistance": {
+      "type": "number",
+      "default": infinite,
+      "description": "A blocks explosion resistance will be capped at this value when an explosion occurs"
+    },
+    "fuseLit": {
       "type": "boolean",
       "default": false,
-      "description": "Determines when the mob transforms, if the trades should be converted when the new mob has a economy_trade_table. When the trades are converted, the mob will generate a new trade list with their new trade table, but then it will try to convert any of the same trades over to have the same enchantments and user data. For example, if the original has a Emerald to Enchanted Iron Sword (Sharpness 1), and the new trade also has an Emerald for Enchanted Iron Sword, then the enchantment will be Sharpness 1."
-    },
-</v>
-      </c>
-      <c r="K2" s="4" t="str">
-        <f>_xlfn.CONCAT(Table1[Json Schema])</f>
-        <v xml:space="preserve">    "convert_trades_economy": {
+      "description": "If true, the fuse is already lit when this component is added to the entity"
+    },
+    "causesFire": {
       "type": "boolean",
       "default": false,
-      "description": "Determines when the mob transforms, if the trades should be converted when the new mob has a economy_trade_table. When the trades are converted, the mob will generate a new trade list with their new trade table, but then it will try to convert any of the same trades over to have the same enchantments and user data. For example, if the original has a Emerald to Enchanted Iron Sword (Sharpness 1), and the new trade also has an Emerald for Enchanted Iron Sword, then the enchantment will be Sharpness 1."
-    },
-    "display_name": {
-      "type": "string",
-      "default": 0,
-      "description": "Name to be displayed while trading with this entity"
-    },
-    "hero_demand_discount": {
-      "type": "integer",
-      "default": -4,
-      "description": "How much should Demand be modified by when the player has the Hero of the Village mob effect"
-    },
-    "new_screen": {
+      "description": "If true, blocks in the explosion radius will be set on fire"
+    },
+    "breaks_blocks": {
+      "type": "boolean",
+      "default": true,
+      "description": "If true, the explosion will destroy blocks in the explosion radius"
+    },
+    "fireAffectedByGriefing": {
       "type": "boolean",
       "default": false,
-      "description": "Used to determine if trading with entity opens the new trade screen"
-    },
-    "persist_trades": {
+      "description": "If true, whether the explosion causes fire is affected by the mob griefing game rule"
+    },
+    "destroyAffectedByGriefing": {
       "type": "boolean",
       "default": false,
-      "description": "Determines if the trades should persist when the mob transforms. This makes it so that the next time the mob is transformed to something with a trade_table or economy_trade_table, then it keeps their trades."
-    },
-    "table": {
-      "type": "string",
-      "default": 0,
-      "description": "File path relative to the resource pack root for this entity's trades"
+      "description": "If true, whether the explosion breaks blocks is affected by the mob griefing game rule"
     },
 </v>
       </c>
@@ -673,79 +701,82 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="str">
         <f>Table1[[#This Row],[Name]]</f>
-        <v>display_name</v>
+        <v>power</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
-        <v>string</v>
-      </c>
-      <c r="G3" s="2">
+        <v>number</v>
+      </c>
+      <c r="G3" s="2" t="str">
         <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>Name to be displayed while trading with this entity</v>
+        <v>The radius of the explosion in blocks and the amount of damage the explosion deals</v>
       </c>
       <c r="I3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "display_name": {
-      "type": "string",
-      "default": 0,
-      "description": "Name to be displayed while trading with this entity"
+        <v xml:space="preserve">    "power": {
+      "type": "number",
+      "default": 3,
+      "description": "The radius of the explosion in blocks and the amount of damage the explosion deals"
     },
 </v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>-4</v>
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="str">
         <f>Table1[[#This Row],[Name]]</f>
-        <v>hero_demand_discount</v>
+        <v>maxResistance</v>
       </c>
       <c r="F4" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
-        <v>integer</v>
+        <v>number</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
-        <v>-4</v>
+        <v>infinite</v>
       </c>
       <c r="H4" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>How much should Demand be modified by when the player has the Hero of the Village mob effect</v>
+        <v>A blocks explosion resistance will be capped at this value when an explosion occurs</v>
       </c>
       <c r="I4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "hero_demand_discount": {
-      "type": "integer",
-      "default": -4,
-      "description": "How much should Demand be modified by when the player has the Hero of the Village mob effect"
+        <v xml:space="preserve">    "maxResistance": {
+      "type": "number",
+      "default": infinite,
+      "description": "A blocks explosion resistance will be capped at this value when an explosion occurs"
     },
 </v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -754,11 +785,11 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="str">
         <f>Table1[[#This Row],[Name]]</f>
-        <v>new_screen</v>
+        <v>fuseLit</v>
       </c>
       <c r="F5" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
@@ -770,21 +801,21 @@
       </c>
       <c r="H5" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>Used to determine if trading with entity opens the new trade screen</v>
+        <v>If true, the fuse is already lit when this component is added to the entity</v>
       </c>
       <c r="I5" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "new_screen": {
+        <v xml:space="preserve">    "fuseLit": {
       "type": "boolean",
       "default": false,
-      "description": "Used to determine if trading with entity opens the new trade screen"
+      "description": "If true, the fuse is already lit when this component is added to the entity"
     },
 </v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -793,11 +824,11 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" t="str">
         <f>Table1[[#This Row],[Name]]</f>
-        <v>persist_trades</v>
+        <v>causesFire</v>
       </c>
       <c r="F6" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
@@ -809,50 +840,131 @@
       </c>
       <c r="H6" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>Determines if the trades should persist when the mob transforms. This makes it so that the next time the mob is transformed to something with a trade_table or economy_trade_table, then it keeps their trades.</v>
+        <v>If true, blocks in the explosion radius will be set on fire</v>
       </c>
       <c r="I6" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "persist_trades": {
+        <v xml:space="preserve">    "causesFire": {
       "type": "boolean",
       "default": false,
-      "description": "Determines if the trades should persist when the mob transforms. This makes it so that the next time the mob is transformed to something with a trade_table or economy_trade_table, then it keeps their trades."
+      "description": "If true, blocks in the explosion radius will be set on fire"
     },
 </v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" t="str">
         <f>Table1[[#This Row],[Name]]</f>
-        <v>table</v>
+        <v>breaks_blocks</v>
       </c>
       <c r="F7" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
-        <v>string</v>
-      </c>
-      <c r="G7" s="2">
+        <v>boolean</v>
+      </c>
+      <c r="G7" s="2" t="str">
         <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
-        <v>0</v>
+        <v>true</v>
       </c>
       <c r="H7" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>File path relative to the resource pack root for this entity's trades</v>
+        <v>If true, the explosion will destroy blocks in the explosion radius</v>
       </c>
       <c r="I7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "table": {
-      "type": "string",
-      "default": 0,
-      "description": "File path relative to the resource pack root for this entity's trades"
+        <v xml:space="preserve">    "breaks_blocks": {
+      "type": "boolean",
+      "default": true,
+      "description": "If true, the explosion will destroy blocks in the explosion radius"
+    },
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="str">
+        <f>Table1[[#This Row],[Name]]</f>
+        <v>fireAffectedByGriefing</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
+        <v>boolean</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
+        <v>false</v>
+      </c>
+      <c r="H8" t="str">
+        <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
+        <v>If true, whether the explosion causes fire is affected by the mob griefing game rule</v>
+      </c>
+      <c r="I8" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
+        <v xml:space="preserve">    "fireAffectedByGriefing": {
+      "type": "boolean",
+      "default": false,
+      "description": "If true, whether the explosion causes fire is affected by the mob griefing game rule"
+    },
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="str">
+        <f>Table1[[#This Row],[Name]]</f>
+        <v>destroyAffectedByGriefing</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
+        <v>boolean</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
+        <v>false</v>
+      </c>
+      <c r="H9" t="str">
+        <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
+        <v>If true, whether the explosion breaks blocks is affected by the mob griefing game rule</v>
+      </c>
+      <c r="I9" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
+        <v xml:space="preserve">    "destroyAffectedByGriefing": {
+      "type": "boolean",
+      "default": false,
+      "description": "If true, whether the explosion breaks blocks is affected by the mob griefing game rule"
     },
 </v>
       </c>
@@ -881,7 +993,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/tools/table to json schema.xlsx
+++ b/tools/table to json schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mijn Projecten\Blockception\VSCode-Bedrock-Development-Extension\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A1F6A7-DF3C-4035-89B5-745340BDD6C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF56B0C9-9244-4ABA-A8E3-844D6649F2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03531832-3421-4F1A-B28C-9978E920E8BE}"/>
   </bookViews>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
-  <si>
-    <t>Boolean</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -77,83 +74,38 @@
 </t>
   </si>
   <si>
-    <t>fuseLength</t>
-  </si>
-  <si>
-    <t>Range [a, b]</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>The range for the random amount of time the fuse will be lit before exploding, a negative value means the explosion will be immediate</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>Decimal</t>
-  </si>
-  <si>
-    <t>The radius of the explosion in blocks and the amount of damage the explosion deals</t>
-  </si>
-  <si>
-    <t>maxResistance</t>
-  </si>
-  <si>
-    <t>Infinite</t>
-  </si>
-  <si>
-    <t>A blocks explosion resistance will be capped at this value when an explosion occurs</t>
-  </si>
-  <si>
-    <t>fuseLit</t>
-  </si>
-  <si>
-    <t>If true, the fuse is already lit when this component is added to the entity</t>
-  </si>
-  <si>
-    <t>causesFire</t>
-  </si>
-  <si>
-    <t>If true, blocks in the explosion radius will be set on fire</t>
-  </si>
-  <si>
-    <t>breaks_blocks</t>
-  </si>
-  <si>
-    <t>If true, the explosion will destroy blocks in the explosion radius</t>
-  </si>
-  <si>
-    <t>fireAffectedByGriefing</t>
-  </si>
-  <si>
-    <t>If true, whether the explosion causes fire is affected by the mob griefing game rule</t>
-  </si>
-  <si>
-    <t>destroyAffectedByGriefing</t>
-  </si>
-  <si>
-    <t>If true, whether the explosion breaks blocks is affected by the mob griefing game rule</t>
+    <t>String</t>
+  </si>
+  <si>
+    <t>authors</t>
+  </si>
+  <si>
+    <t>Name of the author(s) of the pack</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>The license of the pack</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>The home website of your pack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,27 +116,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -206,28 +143,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -241,8 +167,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F4116B3-0007-4D20-9286-68F7BD230BDB}" name="Table1" displayName="Table1" ref="A1:I9" totalsRowShown="0">
-  <autoFilter ref="A1:I9" xr:uid="{439841C6-9CB3-4077-BD6A-80332BFA4FFA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F4116B3-0007-4D20-9286-68F7BD230BDB}" name="Table1" displayName="Table1" ref="A1:I4" totalsRowShown="0">
+  <autoFilter ref="A1:I4" xr:uid="{439841C6-9CB3-4077-BD6A-80332BFA4FFA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{69009C7E-E532-4DCD-BC85-F6C8A2BF783F}" name="Name"/>
     <tableColumn id="2" xr3:uid="{51C9B8E8-45FE-4EED-BB0F-05ACF960DCA5}" name="Type"/>
@@ -251,10 +177,10 @@
     <tableColumn id="8" xr3:uid="{F7F4D22B-89FA-4BF7-9CD7-3493546FB499}" name="Cname">
       <calculatedColumnFormula>Table1[[#This Row],[Name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5BCDDD8B-3993-4CA1-9029-A7034EC6459C}" name="Ctype" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{5BCDDD8B-3993-4CA1-9029-A7034EC6459C}" name="Ctype">
       <calculatedColumnFormula>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{33B88AA2-B199-459B-811C-ED986D928870}" name="Cdefault" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{33B88AA2-B199-459B-811C-ED986D928870}" name="Cdefault">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{367BB0CD-8D97-419C-A3FC-663E45A6296E}" name="Cdescription">
@@ -264,7 +190,7 @@
       <calculatedColumnFormula>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -565,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BED6657-4584-43E8-87D9-83BF6B68546D}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,385 +512,156 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E2" t="str">
         <f>Table1[[#This Row],[Name]]</f>
-        <v>fuseLength</v>
+        <v>authors</v>
       </c>
       <c r="F2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
-        <v>range [a, b]</v>
-      </c>
-      <c r="G2" t="str">
+        <v>string</v>
+      </c>
+      <c r="G2">
         <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
-        <v>[0.0, 0.0]</v>
+        <v>0</v>
       </c>
       <c r="H2" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>The range for the random amount of time the fuse will be lit before exploding, a negative value means the explosion will be immediate</v>
+        <v>Name of the author(s) of the pack</v>
       </c>
       <c r="I2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "fuseLength": {
-      "type": "range [a, b]",
-      "default": [0.0, 0.0],
-      "description": "The range for the random amount of time the fuse will be lit before exploding, a negative value means the explosion will be immediate"
+        <v xml:space="preserve">    "authors": {
+      "type": "string",
+      "default": 0,
+      "description": "Name of the author(s) of the pack"
     },
 </v>
       </c>
-      <c r="K2" s="4" t="str">
+      <c r="K2" s="2" t="str">
         <f>_xlfn.CONCAT(Table1[Json Schema])</f>
-        <v xml:space="preserve">    "fuseLength": {
-      "type": "range [a, b]",
-      "default": [0.0, 0.0],
-      "description": "The range for the random amount of time the fuse will be lit before exploding, a negative value means the explosion will be immediate"
+        <v xml:space="preserve">    "authors": {
+      "type": "string",
+      "default": 0,
+      "description": "Name of the author(s) of the pack"
     },
-    "power": {
-      "type": "number",
-      "default": 3,
-      "description": "The radius of the explosion in blocks and the amount of damage the explosion deals"
+    "license": {
+      "type": "string",
+      "default": 0,
+      "description": "The license of the pack"
     },
-    "maxResistance": {
-      "type": "number",
-      "default": infinite,
-      "description": "A blocks explosion resistance will be capped at this value when an explosion occurs"
-    },
-    "fuseLit": {
-      "type": "boolean",
-      "default": false,
-      "description": "If true, the fuse is already lit when this component is added to the entity"
-    },
-    "causesFire": {
-      "type": "boolean",
-      "default": false,
-      "description": "If true, blocks in the explosion radius will be set on fire"
-    },
-    "breaks_blocks": {
-      "type": "boolean",
-      "default": true,
-      "description": "If true, the explosion will destroy blocks in the explosion radius"
-    },
-    "fireAffectedByGriefing": {
-      "type": "boolean",
-      "default": false,
-      "description": "If true, whether the explosion causes fire is affected by the mob griefing game rule"
-    },
-    "destroyAffectedByGriefing": {
-      "type": "boolean",
-      "default": false,
-      "description": "If true, whether the explosion breaks blocks is affected by the mob griefing game rule"
+    "url": {
+      "type": "string",
+      "default": 0,
+      "description": "The home website of your pack"
     },
 </v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3" t="str">
         <f>Table1[[#This Row],[Name]]</f>
-        <v>power</v>
-      </c>
-      <c r="F3" s="2" t="str">
+        <v>license</v>
+      </c>
+      <c r="F3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
-        <v>number</v>
-      </c>
-      <c r="G3" s="2" t="str">
+        <v>string</v>
+      </c>
+      <c r="G3">
         <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>The radius of the explosion in blocks and the amount of damage the explosion deals</v>
+        <v>The license of the pack</v>
       </c>
       <c r="I3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "power": {
-      "type": "number",
-      "default": 3,
-      "description": "The radius of the explosion in blocks and the amount of damage the explosion deals"
+        <v xml:space="preserve">    "license": {
+      "type": "string",
+      "default": 0,
+      "description": "The license of the pack"
     },
 </v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4" t="str">
         <f>Table1[[#This Row],[Name]]</f>
-        <v>maxResistance</v>
-      </c>
-      <c r="F4" s="2" t="str">
+        <v>url</v>
+      </c>
+      <c r="F4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
-        <v>number</v>
-      </c>
-      <c r="G4" s="2" t="str">
+        <v>string</v>
+      </c>
+      <c r="G4">
         <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
-        <v>infinite</v>
+        <v>0</v>
       </c>
       <c r="H4" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>A blocks explosion resistance will be capped at this value when an explosion occurs</v>
+        <v>The home website of your pack</v>
       </c>
       <c r="I4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "maxResistance": {
-      "type": "number",
-      "default": infinite,
-      "description": "A blocks explosion resistance will be capped at this value when an explosion occurs"
-    },
-</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="str">
-        <f>Table1[[#This Row],[Name]]</f>
-        <v>fuseLit</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
-        <v>boolean</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
-        <v>false</v>
-      </c>
-      <c r="H5" t="str">
-        <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>If true, the fuse is already lit when this component is added to the entity</v>
-      </c>
-      <c r="I5" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "fuseLit": {
-      "type": "boolean",
-      "default": false,
-      "description": "If true, the fuse is already lit when this component is added to the entity"
-    },
-</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="str">
-        <f>Table1[[#This Row],[Name]]</f>
-        <v>causesFire</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
-        <v>boolean</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
-        <v>false</v>
-      </c>
-      <c r="H6" t="str">
-        <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>If true, blocks in the explosion radius will be set on fire</v>
-      </c>
-      <c r="I6" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "causesFire": {
-      "type": "boolean",
-      "default": false,
-      "description": "If true, blocks in the explosion radius will be set on fire"
-    },
-</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="str">
-        <f>Table1[[#This Row],[Name]]</f>
-        <v>breaks_blocks</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
-        <v>boolean</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
-        <v>true</v>
-      </c>
-      <c r="H7" t="str">
-        <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>If true, the explosion will destroy blocks in the explosion radius</v>
-      </c>
-      <c r="I7" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "breaks_blocks": {
-      "type": "boolean",
-      "default": true,
-      "description": "If true, the explosion will destroy blocks in the explosion radius"
-    },
-</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="str">
-        <f>Table1[[#This Row],[Name]]</f>
-        <v>fireAffectedByGriefing</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
-        <v>boolean</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
-        <v>false</v>
-      </c>
-      <c r="H8" t="str">
-        <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>If true, whether the explosion causes fire is affected by the mob griefing game rule</v>
-      </c>
-      <c r="I8" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "fireAffectedByGriefing": {
-      "type": "boolean",
-      "default": false,
-      "description": "If true, whether the explosion causes fire is affected by the mob griefing game rule"
-    },
-</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="str">
-        <f>Table1[[#This Row],[Name]]</f>
-        <v>destroyAffectedByGriefing</v>
-      </c>
-      <c r="F9" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
-        <v>boolean</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
-        <v>false</v>
-      </c>
-      <c r="H9" t="str">
-        <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>If true, whether the explosion breaks blocks is affected by the mob griefing game rule</v>
-      </c>
-      <c r="I9" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "destroyAffectedByGriefing": {
-      "type": "boolean",
-      "default": false,
-      "description": "If true, whether the explosion breaks blocks is affected by the mob griefing game rule"
+        <v xml:space="preserve">    "url": {
+      "type": "string",
+      "default": 0,
+      "description": "The home website of your pack"
     },
 </v>
       </c>
@@ -993,7 +690,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/tools/table to json schema.xlsx
+++ b/tools/table to json schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mijn Projecten\Blockception\VSCode-Bedrock-Development-Extension\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF56B0C9-9244-4ABA-A8E3-844D6649F2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C94753F-C3C7-4667-AB36-6F84D21F4138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03531832-3421-4F1A-B28C-9978E920E8BE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -77,22 +77,28 @@
     <t>String</t>
   </si>
   <si>
-    <t>authors</t>
-  </si>
-  <si>
-    <t>Name of the author(s) of the pack</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>The license of the pack</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>The home website of your pack</t>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>cooldown</t>
+  </si>
+  <si>
+    <t>An optional cool down in seconds to prevent spamming interactions.</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>The list of items that can be given to the entity to place in their inventory.</t>
+  </si>
+  <si>
+    <t>on_give</t>
+  </si>
+  <si>
+    <t>Event to fire when the correct item is given.</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I20" sqref="I19:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,108 +547,111 @@
     </row>
     <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="str">
         <f>Table1[[#This Row],[Name]]</f>
-        <v>authors</v>
+        <v>cooldown</v>
       </c>
       <c r="F2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
-        <v>string</v>
-      </c>
-      <c r="G2">
+        <v>number</v>
+      </c>
+      <c r="G2" t="str">
         <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
         <v>0</v>
       </c>
       <c r="H2" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>Name of the author(s) of the pack</v>
+        <v>An optional cool down in seconds to prevent spamming interactions.</v>
       </c>
       <c r="I2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "authors": {
+        <v xml:space="preserve">    "cooldown": {
+      "type": "number",
+      "default": 0,
+      "description": "An optional cool down in seconds to prevent spamming interactions."
+    },
+</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>_xlfn.CONCAT(Table1[Json Schema])</f>
+        <v xml:space="preserve">    "cooldown": {
+      "type": "number",
+      "default": 0,
+      "description": "An optional cool down in seconds to prevent spamming interactions."
+    },
+    "items": {
+      "type": "array",
+      "default": ,
+      "description": "The list of items that can be given to the entity to place in their inventory."
+    },
+    "on_give": {
       "type": "string",
       "default": 0,
-      "description": "Name of the author(s) of the pack"
-    },
-</v>
-      </c>
-      <c r="K2" s="2" t="str">
-        <f>_xlfn.CONCAT(Table1[Json Schema])</f>
-        <v xml:space="preserve">    "authors": {
-      "type": "string",
-      "default": 0,
-      "description": "Name of the author(s) of the pack"
-    },
-    "license": {
-      "type": "string",
-      "default": 0,
-      "description": "The license of the pack"
-    },
-    "url": {
-      "type": "string",
-      "default": 0,
-      "description": "The home website of your pack"
+      "description": "Event to fire when the correct item is given."
     },
 </v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="str">
         <f>Table1[[#This Row],[Name]]</f>
-        <v>license</v>
+        <v>items</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
-        <v>string</v>
-      </c>
-      <c r="G3">
+        <v>array</v>
+      </c>
+      <c r="G3" t="str">
         <f>IF(Table1[[#This Row],[Ctype]]="string", Table1[[#This Row],[Default Value]], LOWER(Table1[[#This Row],[Default Value]]))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H3" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>The license of the pack</v>
+        <v>The list of items that can be given to the entity to place in their inventory.</v>
       </c>
       <c r="I3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "license": {
-      "type": "string",
-      "default": 0,
-      "description": "The license of the pack"
+        <v xml:space="preserve">    "items": {
+      "type": "array",
+      "default": ,
+      "description": "The list of items that can be given to the entity to place in their inventory."
     },
 </v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="str">
         <f>Table1[[#This Row],[Name]]</f>
-        <v>url</v>
+        <v>on_give</v>
       </c>
       <c r="F4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(LOWER(Table1[[#This Row],[Type]]),"decimal", "number"), "list", "array")</f>
@@ -654,14 +663,14 @@
       </c>
       <c r="H4" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Description]], CHAR(34), "\" &amp; CHAR(34))</f>
-        <v>The home website of your pack</v>
+        <v>Event to fire when the correct item is given.</v>
       </c>
       <c r="I4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Template, "$NAME$", Table1[[#This Row],[Cname]]), "$TYPE$", Table1[[#This Row],[Ctype]]), "$DESCRIPTION$", Table1[[#This Row],[Cdescription]]), "$VALUE$",Table1[[#This Row],[Cdefault]])</f>
-        <v xml:space="preserve">    "url": {
+        <v xml:space="preserve">    "on_give": {
       "type": "string",
       "default": 0,
-      "description": "The home website of your pack"
+      "description": "Event to fire when the correct item is given."
     },
 </v>
       </c>
